--- a/outputs-HGR-r202/g__Megasphaera.xlsx
+++ b/outputs-HGR-r202/g__Megasphaera.xlsx
@@ -888,7 +888,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505(reject)</t>
+          <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505(reject)</t>
+          <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505(reject)</t>
+          <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505(reject)</t>
+          <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505(reject)</t>
+          <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505(reject)</t>
+          <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505(reject)</t>
+          <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505(reject)</t>
+          <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505(reject)</t>
+          <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505(reject)</t>
+          <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505(reject)</t>
+          <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505(reject)</t>
+          <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Megasphaera.xlsx
+++ b/outputs-HGR-r202/g__Megasphaera.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +578,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -607,6 +622,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -646,6 +666,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -685,6 +710,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -724,6 +754,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -763,6 +798,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -802,6 +842,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -841,6 +886,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -880,6 +930,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -919,6 +974,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -958,6 +1018,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -997,6 +1062,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1036,6 +1106,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1075,6 +1150,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1114,6 +1194,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1153,6 +1238,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1192,6 +1282,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1231,6 +1326,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1270,6 +1370,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1309,6 +1414,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1348,6 +1458,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1387,6 +1502,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1426,6 +1546,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1465,6 +1590,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1504,6 +1634,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1543,6 +1678,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1582,6 +1722,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1621,6 +1766,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1660,6 +1810,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1699,6 +1854,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1738,6 +1898,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1777,6 +1942,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1816,6 +1986,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1855,6 +2030,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1894,6 +2074,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1933,6 +2118,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1972,6 +2162,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2011,6 +2206,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2050,6 +2250,11 @@
           <t>s__Megasphaera massiliensis</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>s__Megasphaera massiliensis</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2089,6 +2294,11 @@
           <t>s__Megasphaera sp002319965</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp002319965</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2128,6 +2338,11 @@
           <t>s__Megasphaera stantonii</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>s__Megasphaera stantonii</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2167,6 +2382,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2206,6 +2426,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2245,6 +2470,11 @@
           <t>s__Megasphaera massiliensis</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>s__Megasphaera massiliensis</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2284,6 +2514,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2323,6 +2558,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2362,6 +2602,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2401,6 +2646,11 @@
           <t>s__Megasphaera massiliensis</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>s__Megasphaera massiliensis</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2440,6 +2690,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2479,6 +2734,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2518,6 +2778,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2557,6 +2822,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2596,6 +2866,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2635,6 +2910,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2674,6 +2954,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2713,6 +2998,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2752,6 +3042,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2791,6 +3086,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2830,6 +3130,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2869,6 +3174,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2908,6 +3218,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2947,6 +3262,11 @@
           <t>s__Megasphaera sp000417505</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp000417505</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2984,6 +3304,11 @@
       <c r="K65" t="inlineStr">
         <is>
           <t>s__Megasphaera sp900554215</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>s__Megasphaera sp900554215(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Megasphaera.xlsx
+++ b/outputs-HGR-r202/g__Megasphaera.xlsx
@@ -888,7 +888,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp000417505</t>
+          <t>s__Megasphaera sp000417505(reject)</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>s__Megasphaera sp900554215</t>
+          <t>s__Megasphaera sp900554215(reject)</t>
         </is>
       </c>
     </row>
